--- a/AmazonTrue.xlsx
+++ b/AmazonTrue.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\QAABSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70744A99-B45D-4C79-B166-B6D6B770A430}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC28B8A7-AD07-46E5-85AC-015E2F44CEE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,10 +386,6 @@
 (305, 320, 'scene backdrops', 'positive')]</t>
   </si>
   <si>
-    <t>[(7, 19, 'starter pack', 'positive'),
-(52, 72, 'colour possibilities', 'positive'))]</t>
-  </si>
-  <si>
     <t>[(5, 10, 'gifts', 'positive')]</t>
   </si>
   <si>
@@ -625,6 +621,10 @@
   </si>
   <si>
     <t>[(5, 13, 'delivery', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(7, 19, 'starter pack', 'positive'),
+(52, 72, 'colour possibilities', 'positive')]</t>
   </si>
 </sst>
 </file>
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1159,7 +1159,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1191,7 +1191,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1199,7 +1199,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1207,7 +1207,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1215,7 +1215,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1223,7 +1223,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1231,7 +1231,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1239,7 +1239,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1263,7 +1263,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1271,7 +1271,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1279,7 +1279,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1287,7 +1287,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1295,7 +1295,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1303,7 +1303,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1311,7 +1311,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1319,7 +1319,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1327,7 +1327,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1335,7 +1335,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1343,7 +1343,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1351,7 +1351,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1359,7 +1359,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1367,7 +1367,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1375,7 +1375,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1383,7 +1383,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1399,7 +1399,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1407,7 +1407,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1423,7 +1423,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1431,7 +1431,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1439,7 +1439,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1447,7 +1447,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1455,7 +1455,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1463,7 +1463,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1471,7 +1471,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1479,7 +1479,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1495,7 +1495,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1503,7 +1503,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1511,7 +1511,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1527,7 +1527,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1535,7 +1535,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1543,7 +1543,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1551,7 +1551,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1559,7 +1559,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1575,7 +1575,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1599,7 +1599,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1607,7 +1607,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1623,7 +1623,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1631,7 +1631,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1639,7 +1639,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1647,7 +1647,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1663,7 +1663,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1671,7 +1671,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1679,7 +1679,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1687,7 +1687,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1695,7 +1695,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1703,7 +1703,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1711,7 +1711,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1719,7 +1719,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1727,7 +1727,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1735,7 +1735,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1743,7 +1743,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1751,7 +1751,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1767,7 +1767,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1775,7 +1775,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1783,7 +1783,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1791,7 +1791,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1799,7 +1799,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1807,7 +1807,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/AmazonTrue.xlsx
+++ b/AmazonTrue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\QAABSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC28B8A7-AD07-46E5-85AC-015E2F44CEE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27885B26-F978-4088-92EA-66FD8D0A38AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,10 +423,6 @@
     <t>[(4, 11, 'service', 'positive'), (38, 44, 'liquid', 'positive')]</t>
   </si>
   <si>
-    <t>[(20, 26, 'colour', 'positive')
-(266, 272, 'colour', 'positive')]</t>
-  </si>
-  <si>
     <t>[(8, 11, 'use', 'positive'),
 (36, 47, 'flexibility', 'positive'),
 (124, 131, 'colours', 'positive')]</t>
@@ -505,10 +501,6 @@
     <t>[(97, 114, 'quality of detail', 'positive'), (124, 132, 'handling', 'positive')]</t>
   </si>
   <si>
-    <t>[(4, 8, 'mass', 'positive')
-(87, 93, 'result', 'positive')]</t>
-  </si>
-  <si>
     <t>[(0, 7, 'Product', 'positive')]</t>
   </si>
   <si>
@@ -517,6 +509,114 @@
   </si>
   <si>
     <t>[(83, 91, 'products', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(128, 140, 'instructions', 'negative')]</t>
+  </si>
+  <si>
+    <t>[(163, 167, 'clay', 'negative')]</t>
+  </si>
+  <si>
+    <t>[(141, 147, 'colors', 'positive'),
+(107, 119, 'instructions', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(12, 19, 'quality', 'positive'),
+(22, 33, 'price ratio', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(64, 76, 'instructions', 'positive'), (98, 105, 'product', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(62, 67, 'items', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(68, 74, 'blocks', 'positive'),
+(102, 108, 'colors', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(40, 47, 'service', 'positive'),
+(62, 67, 'price', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(123, 128, 'color', 'positive'),
+(34, 39, 'price', 'negative')]</t>
+  </si>
+  <si>
+    <t>[(12, 18, 'colors', 'positive'),
+(29, 41, 'easy to work', 'positive'), (121, 126, 'price', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(51, 69, 'impossible to work', 'negative')]</t>
+  </si>
+  <si>
+    <t>[(23, 27, 'clay', 'positive'),
+(42, 45, 'use', 'positive'),
+(108, 113, 'color', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(21, 30, 'packaged,', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(0, 8, 'Delivery', 'positive'),
+(108, 112, 'clay', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(27, 44, 'kneading material', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(137, 144, 'product', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(52, 56, 'Fimo', 'negative'),
+(158, 162, 'clay', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(42, 47, 'order', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(24, 29, 'color', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(10, 19, 'delivered', 'positive'),
+(88, 93, 'tools', 'negative')]</t>
+  </si>
+  <si>
+    <t>[(66, 74, 'material', 'negative')]</t>
+  </si>
+  <si>
+    <t>[(28, 32, 'use.', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(0, 6, 'Blocks', 'negative'),
+(80, 87, 'colours', 'positive'),
+(100, 112, 'easy to work', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(10, 17, 'product', 'positive')]</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>[(5, 13, 'delivery', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(7, 19, 'starter pack', 'positive'),
+(52, 72, 'colour possibilities', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(20, 26, 'colour', 'positive'),
+(266, 272, 'colour', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(4, 8, 'mass', 'positive'),
+(87, 93, 'result', 'positive')]</t>
+  </si>
+  <si>
+    <t>[(47, 54, 'quality', 'positive'),
+(73, 76, 'box', 'positive'),
+(93, 99, 'colors', 'positive')]</t>
   </si>
   <si>
     <t>[(20, 22, 'PC', 'positive'),
@@ -524,107 +624,7 @@
 (38, 48, 'conditions', 'positive'),
 (55, 61, 'colors', 'positive'),
 (79, 89, 'affordable', 'positive'),
-(115, 121, 'blends')]</t>
-  </si>
-  <si>
-    <t>[(128, 140, 'instructions', 'negative')]</t>
-  </si>
-  <si>
-    <t>[(163, 167, 'clay', 'negative')]</t>
-  </si>
-  <si>
-    <t>[(141, 147, 'colors', 'positive'),
-(107, 119, 'instructions', 'positive')]</t>
-  </si>
-  <si>
-    <t>[(12, 19, 'quality', 'positive'),
-(22, 33, 'price ratio', 'positive')]</t>
-  </si>
-  <si>
-    <t>[(64, 76, 'instructions', 'positive'), (98, 105, 'product', 'positive')]</t>
-  </si>
-  <si>
-    <t>[(62, 67, 'items', 'positive')]</t>
-  </si>
-  <si>
-    <t>[(68, 74, 'blocks', 'positive'),
-(102, 108, 'colors', 'positive')]</t>
-  </si>
-  <si>
-    <t>[(40, 47, 'service', 'positive'),
-(62, 67, 'price', 'positive')]</t>
-  </si>
-  <si>
-    <t>[(123, 128, 'color', 'positive'),
-(34, 39, 'price', 'negative')]</t>
-  </si>
-  <si>
-    <t>[(12, 18, 'colors', 'positive'),
-(29, 41, 'easy to work', 'positive'), (121, 126, 'price', 'positive')]</t>
-  </si>
-  <si>
-    <t>[(47, 54, 'quality', 'positive'),
-(73, 76, 'box', 'positive'),
-(93, 99, 'colors', 'positive)]</t>
-  </si>
-  <si>
-    <t>[(51, 69, 'impossible to work', 'negative')]</t>
-  </si>
-  <si>
-    <t>[(23, 27, 'clay', 'positive'),
-(42, 45, 'use', 'positive'),
-(108, 113, 'color', 'positive')]</t>
-  </si>
-  <si>
-    <t>[(21, 30, 'packaged,', 'positive')]</t>
-  </si>
-  <si>
-    <t>[(0, 8, 'Delivery', 'positive'),
-(108, 112, 'clay', 'positive')]</t>
-  </si>
-  <si>
-    <t>[(27, 44, 'kneading material', 'positive')]</t>
-  </si>
-  <si>
-    <t>[(137, 144, 'product', 'positive')]</t>
-  </si>
-  <si>
-    <t>[(52, 56, 'Fimo', 'negative'),
-(158, 162, 'clay', 'positive')]</t>
-  </si>
-  <si>
-    <t>[(42, 47, 'order', 'positive')]</t>
-  </si>
-  <si>
-    <t>[(24, 29, 'color', 'positive')]</t>
-  </si>
-  <si>
-    <t>[(10, 19, 'delivered', 'positive'),
-(88, 93, 'tools', 'negative')]</t>
-  </si>
-  <si>
-    <t>[(66, 74, 'material', 'negative')]</t>
-  </si>
-  <si>
-    <t>[(28, 32, 'use.', 'positive')]</t>
-  </si>
-  <si>
-    <t>[(0, 6, 'Blocks', 'negative'),
-(80, 87, 'colours', 'positive'),
-(100, 112, 'easy to work', 'positive')]</t>
-  </si>
-  <si>
-    <t>[(10, 17, 'product', 'positive')]</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>[(5, 13, 'delivery', 'positive')]</t>
-  </si>
-  <si>
-    <t>[(7, 19, 'starter pack', 'positive'),
-(52, 72, 'colour possibilities', 'positive')]</t>
+(115, 121, 'blends', 'positive')]</t>
   </si>
 </sst>
 </file>
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1159,7 +1159,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1191,7 +1191,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1303,7 +1303,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1311,7 +1311,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1319,7 +1319,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1327,7 +1327,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1335,7 +1335,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1343,7 +1343,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1351,7 +1351,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1359,7 +1359,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1367,7 +1367,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1375,7 +1375,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1383,7 +1383,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1399,7 +1399,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1407,7 +1407,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1423,7 +1423,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1431,7 +1431,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1439,7 +1439,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1447,7 +1447,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1455,7 +1455,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1463,7 +1463,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1471,7 +1471,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1479,7 +1479,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1495,7 +1495,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1503,7 +1503,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1511,7 +1511,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1527,7 +1527,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1535,7 +1535,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1543,7 +1543,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1551,7 +1551,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1559,7 +1559,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1575,7 +1575,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1599,7 +1599,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1607,7 +1607,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1623,7 +1623,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1631,7 +1631,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1639,7 +1639,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1647,7 +1647,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1663,7 +1663,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1671,7 +1671,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1679,7 +1679,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1687,7 +1687,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1695,7 +1695,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1703,7 +1703,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1711,7 +1711,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1719,7 +1719,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1727,7 +1727,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1735,7 +1735,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1743,7 +1743,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1751,7 +1751,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1767,7 +1767,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1775,7 +1775,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1783,7 +1783,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1791,7 +1791,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1799,7 +1799,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1807,7 +1807,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
